--- a/biology/Biologie cellulaire et moléculaire/Luigi_Luca_Cavalli-Sforza/Luigi_Luca_Cavalli-Sforza.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Luigi_Luca_Cavalli-Sforza/Luigi_Luca_Cavalli-Sforza.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Luigi Luca Cavalli-Sforza (né le 25 janvier 1922 à Gênes et mort le 31 août 2018 à Belluno) est un généticien italien.
 Spécialiste de la génétique des populations, il est considéré comme l'inventeur de la géographie génétique.
@@ -512,15 +524,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Formé à l'université de Pavie (1944), Luigi Luca Cavalli-Sforza est professeur émérite au département de génétique de l'université Stanford où il exerce depuis 1970.
-Le 16 novembre 1999, il est lauréat du prix Balzan (1999) pour la science des origines de l'Homme, « pour l'ampleur de ses travaux sur l'évolution de l'homme, qu'il a menés en étudiant à la fois les aspects génétiques et culturels »[1].
-Il est membre associé de l'Académie des sciences (section biologie humaine et sciences médicales) à partir du 4 mars 2002[2], et membre de l'Académie des Lyncéens.
+Le 16 novembre 1999, il est lauréat du prix Balzan (1999) pour la science des origines de l'Homme, « pour l'ampleur de ses travaux sur l'évolution de l'homme, qu'il a menés en étudiant à la fois les aspects génétiques et culturels ».
+Il est membre associé de l'Académie des sciences (section biologie humaine et sciences médicales) à partir du 4 mars 2002, et membre de l'Académie des Lyncéens.
 Son travail en génétique des populations est résumé dans Gènes, Peuples, et Langues (1996).
-Luigi Luca Cavalli-Sforza est mort à l'âge de 96 ans le 31 août 2018 à Belluno[3].
-Famille
-Luigi Luca Cavalli-Sforza est le père du philosophe Francesco Cavalli-Sforza[4].
+Luigi Luca Cavalli-Sforza est mort à l'âge de 96 ans le 31 août 2018 à Belluno.
 </t>
         </is>
       </c>
@@ -546,12 +558,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Décoration</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Chevalier grand-croix de l'ordre du Mérite de la République italienne (7 juin 2000)</t>
+          <t>Famille</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Luigi Luca Cavalli-Sforza est le père du philosophe Francesco Cavalli-Sforza.
+</t>
         </is>
       </c>
     </row>
@@ -576,13 +595,50 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Décoration</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chevalier grand-croix de l'ordre du Mérite de la République italienne (7 juin 2000)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Luigi_Luca_Cavalli-Sforza</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Luigi_Luca_Cavalli-Sforza</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Publications originales
-(it) Teoria dell'urto ed unità biologiche elementari, avec Adriano Buzzati-Traverso, Milan, Longanesi, 1947
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Publications originales</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(it) Teoria dell'urto ed unità biologiche elementari, avec Adriano Buzzati-Traverso, Milan, Longanesi, 1947
 (it) Genetica. Lezioni dettate da Luigi Cavalli-Sforza e Giovanni Magni (Università degli studi di Pavia), Milan, R. Malfasi, 1953
 (it) Analisi statistica per medici e biologi e analisi del dosaggio biologico, Turin, P. Boringhieri, 1961
 (it) Appunti alle lezioni di genetica e biologia molecolare tenute dal prof. L. L. Cavalli-Sforza, Parme, Casanova, 1962
@@ -612,9 +668,43 @@
 (it) Pianeta in evoluzione, avec Francesco Cavalli-Sforza, Milan, Einaudi, 2010  (ISBN 9788828610113)
 (it) Vita in evoluzione, avec Francesco Cavalli-Sforza, Milan, Einaudi, 2010  (ISBN 9788828610120)
 (it) La Specie prepotente, Milan, San Raffaele, 2010.
-(it) Razzismo e noismo. Le declinazioni del noi e l'esclusione dell'altro, avec Daniela Padoan, Milan, Einaudi, 2013.  (ISBN 9788806216047)
-Publications traduites en français
-avec Francesco Cavalli-Sforza, Qui sommes-nous ? : Une histoire de la diversité humaine [« Chi siamo. La storia della diversità umana »], Éditions Albin Michel, coll. « Sciences d'aujourd'hui », 1994, 400 p. (ISBN 978-2-226-07492-8)
+(it) Razzismo e noismo. Le declinazioni del noi e l'esclusione dell'altro, avec Daniela Padoan, Milan, Einaudi, 2013.  (ISBN 9788806216047)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Luigi_Luca_Cavalli-Sforza</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Luigi_Luca_Cavalli-Sforza</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Publications traduites en français</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>avec Francesco Cavalli-Sforza, Qui sommes-nous ? : Une histoire de la diversité humaine [« Chi siamo. La storia della diversità umana »], Éditions Albin Michel, coll. « Sciences d'aujourd'hui », 1994, 400 p. (ISBN 978-2-226-07492-8)
 Gènes, peuples et langues : Une histoire de la diversité humaine [« Geni, popoli e lingue »], Éditions Odile Jacob, 1996, 322 p. (ISBN 978-2-7381-0342-0)
 La Science du bonheur : les raisons et les valeurs de notre vie [« La scienza della felicità. Ragioni e valori della nostra vita »], Éditions Odile Jacob, 1998, 318 p. (ISBN 978-2-7381-0627-8) (traduit par Jean Baisnée)
 Évolution biologique, évolution culturelle [« L'evoluzione della cultura. Proposte concrete per studi futuri »], Éditions Odile Jacob, 2005, 253 p. (ISBN 978-2-7381-1647-5)
@@ -623,31 +713,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Luigi_Luca_Cavalli-Sforza</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Luigi_Luca_Cavalli-Sforza</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Exposition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Commissaire avec Telmo Pievani de « Homo Sapiens. La grande storia della diversità umana », au Palais des expositions de Rome (11 novembre 2011 - 12 février 2012)</t>
         </is>
